--- a/P05/docs/Scrum.xlsx
+++ b/P05/docs/Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolade Favour\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCC634A-4D30-41BC-AB0C-6A05466E4992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D49B2E-1DE9-4BBC-B745-33EF67CBF3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="162">
   <si>
     <t>Product Name:</t>
   </si>
@@ -660,6 +660,15 @@
   </si>
   <si>
     <t>Completed Day 3</t>
+  </si>
+  <si>
+    <t>create Shelter class</t>
+  </si>
+  <si>
+    <t>Completed Day 7</t>
+  </si>
+  <si>
+    <t>test Shelter class with Mass. Java</t>
   </si>
 </sst>
 </file>
@@ -1467,28 +1476,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,7 +3493,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="J22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -7370,8 +7379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -7474,7 +7483,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -7489,7 +7498,7 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7507,7 +7516,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -7525,7 +7534,7 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -7543,7 +7552,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7561,7 +7570,7 @@
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -7579,7 +7588,7 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -7597,11 +7606,11 @@
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -7741,17 +7750,29 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="B24" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">

--- a/P05/docs/Scrum.xlsx
+++ b/P05/docs/Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolade Favour\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolade Favour\Downloads\CSE 1325\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D49B2E-1DE9-4BBC-B745-33EF67CBF3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77360EAD-9795-45F2-88FA-2B757746CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="163">
   <si>
     <t>Product Name:</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>test Shelter class with Mass. Java</t>
+  </si>
+  <si>
+    <t>finished testing Shelter class with Mass.java</t>
   </si>
 </sst>
 </file>
@@ -1180,19 +1183,19 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,25 +1479,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -3493,8 +3496,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3700,11 +3703,11 @@
       </c>
       <c r="B13" s="2">
         <f>B12-C13</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 1")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
@@ -3724,7 +3727,7 @@
       </c>
       <c r="B14" s="2">
         <f>B13-C14</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 2")</f>
@@ -3748,7 +3751,7 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 3")</f>
@@ -3772,7 +3775,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3792,7 +3795,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3991,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>36</v>
@@ -7379,7 +7382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -7483,7 +7486,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -7498,7 +7501,7 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7516,7 +7519,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -7534,7 +7537,7 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -7552,7 +7555,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7570,7 +7573,7 @@
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -7588,7 +7591,7 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -7610,7 +7613,7 @@
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -7778,9 +7781,15 @@
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
